--- a/data/demo/units/cementUnits.xlsx
+++ b/data/demo/units/cementUnits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/units/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/demo/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F433E4-051F-2F40-9795-7C3F21BBD8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D8AC94-441E-D943-8F4F-B7F01DB16FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{94C69905-85FA-FD47-AACA-486307E1FA4E}"/>
+    <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{94C69905-85FA-FD47-AACA-486307E1FA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="c meal mixer" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>energyFuel</t>
-  </si>
-  <si>
     <t>fuelDemand</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>EU-BECCS</t>
+  </si>
+  <si>
+    <t>energy from fuel</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FCCF6-DE04-5B46-B2A7-E15C68CE5662}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -809,35 +809,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA23163-3E52-184E-8C92-A87AA50554C7}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1055,22 +1055,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1101,19 +1101,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -1124,22 +1124,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,22 +1171,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -1194,36 +1194,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3.6</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>3.6</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>0.75</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0.65</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>3.2</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>0.67</v>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>0.65</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1393,32 +1393,32 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1458,29 +1458,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>0.15</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -1570,82 +1570,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1665,35 +1665,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>4</v>

--- a/data/demo/units/cementUnits.xlsx
+++ b/data/demo/units/cementUnits.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/demo/units/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\demo\units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D8AC94-441E-D943-8F4F-B7F01DB16FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{94C69905-85FA-FD47-AACA-486307E1FA4E}"/>
+    <workbookView xWindow="825" yWindow="1815" windowWidth="27645" windowHeight="16545" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="c meal mixer" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="MealMixer" localSheetId="0">'c meal mixer'!$A$1:$F$4</definedName>
     <definedName name="MealMixerVar" localSheetId="1">'var meal mixer'!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +39,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{69081840-EA6B-B04D-B6AF-DA149E9B26DA}" name="CementBlender" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="CementBlender" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/CementBlender.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -53,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{64DB5383-5502-6A45-995A-AA0F56975C94}" name="CementBlenderVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="CementBlenderVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/CementBlenderVar.tsv" thousands=" ">
       <textFields count="3">
         <textField/>
@@ -62,7 +61,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{2A8E3918-40C4-1242-BB5B-B1DDBF4530C5}" name="ClinkerKiln" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="ClinkerKiln" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/ClinkerKiln.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -74,7 +73,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{9C1F5FE5-34C4-744B-94A1-665EEF848114}" name="ClinkerKilnVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="ClinkerKilnVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/ClinkerKilnVar.tsv" thousands=" ">
       <textFields count="7">
         <textField/>
@@ -87,7 +86,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{C5F51A8A-BF67-C04D-8161-7A9BB8C2601F}" name="MealMixer" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="MealMixer" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/MealMixer.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -99,7 +98,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{88BC455D-0D24-3B4D-AD6B-0AB35542F4F8}" name="MealMixerVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="MealMixerVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/MealMixerVar.tsv" thousands=" ">
       <textFields count="5">
         <textField/>
@@ -188,9 +187,6 @@
     <t>Combustion</t>
   </si>
   <si>
-    <t>combustEff</t>
-  </si>
-  <si>
     <t>cement</t>
   </si>
   <si>
@@ -315,12 +311,15 @@
   </si>
   <si>
     <t>energy from fuel</t>
+  </si>
+  <si>
+    <t>combustion eff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -370,27 +369,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixer" connectionId="5" xr16:uid="{F9AD01B7-C3E9-3548-99A8-F5F2758D7C8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MealMixer" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixerVar" connectionId="6" xr16:uid="{429E42DC-1607-0349-AD27-8FB369017594}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MealMixerVar" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKiln" connectionId="3" xr16:uid="{83F778A0-9E26-5B4D-B670-15D4CB456D74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ClinkerKiln" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKilnVar" connectionId="4" xr16:uid="{5C346571-3C94-EE42-943D-F0842BD663C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ClinkerKilnVar" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CementBlender" connectionId="1" xr16:uid="{A4900E21-A24A-AB44-B82A-CF871032009F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CementBlender" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CementBlenderVar" connectionId="2" xr16:uid="{155EF42E-E7C6-AC4F-8EB3-32EAF7E916E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CementBlenderVar" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,24 +688,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCE611D-9E66-FC4D-9411-2A473C140578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -743,10 +742,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -763,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -792,52 +791,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FCCF6-DE04-5B46-B2A7-E15C68CE5662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -849,9 +848,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -863,9 +862,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -877,9 +876,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -891,9 +890,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -911,23 +910,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA23163-3E52-184E-8C92-A87AA50554C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,13 +946,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -973,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -993,7 +992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1010,10 +1009,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1033,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1070,10 +1069,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1101,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1119,27 +1118,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1151,79 +1150,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE63004-2FFA-F844-A46D-0BECDBA775CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>3.6</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -1239,15 +1238,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>3.6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0.75</v>
@@ -1263,15 +1262,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>0.65</v>
@@ -1287,15 +1286,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>3.2</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>0.67</v>
@@ -1311,15 +1310,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>0.65</v>
@@ -1341,22 +1340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11C76E-0B4B-024F-8382-DD39B8BF8281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,9 +1375,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1393,32 +1392,32 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1442,45 +1441,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6899E09-A186-5449-A261-122D86B78C4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1489,9 +1488,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -1500,9 +1499,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0.15</v>
@@ -1511,9 +1510,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -1522,9 +1521,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -1539,16 +1538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C49A0E-8656-A343-A426-DD0CE754E6D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,84 +1567,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1654,46 +1653,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F5B2D7-3645-3F43-8E8C-42CF11763638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1705,9 +1704,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1719,9 +1718,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1733,9 +1732,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1747,9 +1746,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>4</v>

--- a/data/demo/units/cementUnits.xlsx
+++ b/data/demo/units/cementUnits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\demo\units\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/demo/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0051D45C-E85B-C34A-9F61-288BED48FBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1815" windowWidth="27645" windowHeight="16545" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c meal mixer" sheetId="1" r:id="rId1"/>
@@ -29,18 +30,26 @@
     <definedName name="MealMixer" localSheetId="0">'c meal mixer'!$A$1:$F$4</definedName>
     <definedName name="MealMixerVar" localSheetId="1">'var meal mixer'!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="CementBlender" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="CementBlender" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/CementBlender.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -52,7 +61,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="CementBlenderVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="CementBlenderVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/CementBlenderVar.tsv" thousands=" ">
       <textFields count="3">
         <textField/>
@@ -61,7 +70,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="ClinkerKiln" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="ClinkerKiln" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/ClinkerKiln.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -73,7 +82,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="ClinkerKilnVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="ClinkerKilnVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/ClinkerKilnVar.tsv" thousands=" ">
       <textFields count="7">
         <textField/>
@@ -86,7 +95,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="MealMixer" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="MealMixer" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/calcFiles/MealMixer.tsv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -98,7 +107,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="MealMixerVar" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="MealMixerVar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Tanzer/GitHub/BlackBlox/varFiles/MealMixerVar.tsv" thousands=" ">
       <textFields count="5">
         <textField/>
@@ -113,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
   <si>
     <t>KnownQty</t>
   </si>
@@ -310,16 +319,25 @@
     <t>EU-BECCS</t>
   </si>
   <si>
-    <t>energy from fuel</t>
-  </si>
-  <si>
     <t>combustion eff</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>returnValue</t>
+  </si>
+  <si>
+    <t>electricity, consumed</t>
+  </si>
+  <si>
+    <t>energy in fuel consumed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -369,27 +387,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MealMixer" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixer" connectionId="5" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MealMixerVar" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MealMixerVar" connectionId="6" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ClinkerKiln" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKiln" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ClinkerKilnVar" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ClinkerKilnVar" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CementBlender" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CementBlender" connectionId="1" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CementBlenderVar" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CementBlenderVar" connectionId="2" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,24 +706,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -791,22 +809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -820,7 +838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -834,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -848,7 +866,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -862,7 +880,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -876,7 +894,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -890,7 +908,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -910,23 +928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -972,7 +990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1020,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1032,7 +1050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1052,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1060,19 +1078,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1100,47 +1118,64 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1150,25 +1185,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1185,13 +1220,13 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1286,7 +1321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1340,22 +1375,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1395,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1441,21 +1476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +1512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +1523,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1538,16 +1573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1627,7 +1662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1653,16 +1688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1753,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1732,7 +1767,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>

--- a/data/demo/units/cementUnits.xlsx
+++ b/data/demo/units/cementUnits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/demo/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0051D45C-E85B-C34A-9F61-288BED48FBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA7DA5-3646-DE48-9F3A-28F336DB6B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>

--- a/data/demo/units/cementUnits.xlsx
+++ b/data/demo/units/cementUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/demo/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA7DA5-3646-DE48-9F3A-28F336DB6B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA09F19F-1356-B94D-A892-9B6979FEE95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1820" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c meal mixer" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
   <si>
     <t>KnownQty</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>energy in fuel consumed</t>
+  </si>
+  <si>
+    <t>outflow</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,6 +804,23 @@
       </c>
       <c r="F4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -931,14 +951,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1041,7 +1062,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1081,7 +1102,7 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1376,9 +1397,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1468,6 +1491,23 @@
       </c>
       <c r="F4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
